--- a/src/examples/demo_inputs_transportation_facility_location.xlsx
+++ b/src/examples/demo_inputs_transportation_facility_location.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jabil-my.sharepoint.com/personal/johnathon_wheaton_jabil_com/Documents/Documents/Python Scripts/NetworkOptimizer/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jabil-my.sharepoint.com/personal/johnathon_wheaton_jabil_com/Documents/Documents/Python Scripts/NetowrkOptimizerV2/src/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{219022CE-CFFE-409A-9464-F800E6E350CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5D9CD92-465B-4131-89BF-CCC711B4A524}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{219022CE-CFFE-409A-9464-F800E6E350CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C61AD0-9180-4E91-94E5-0E9764A51AD2}"/>
   <bookViews>
-    <workbookView xWindow="-15180" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
+    <workbookView xWindow="-15180" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="15" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -9548,7 +9548,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -10567,8 +10567,8 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10578,6 +10578,7 @@
     <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -10647,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -10682,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -10717,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -10752,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -10787,7 +10788,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/examples/demo_inputs_transportation_facility_location.xlsx
+++ b/src/examples/demo_inputs_transportation_facility_location.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="16" documentId="8_{219022CE-CFFE-409A-9464-F800E6E350CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C61AD0-9180-4E91-94E5-0E9764A51AD2}"/>
   <bookViews>
-    <workbookView xWindow="-15180" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="15" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="12050" firstSheet="11" activeTab="15" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>

--- a/src/examples/demo_inputs_transportation_facility_location.xlsx
+++ b/src/examples/demo_inputs_transportation_facility_location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jabil-my.sharepoint.com/personal/johnathon_wheaton_jabil_com/Documents/Documents/Python Scripts/NetowrkOptimizerV2/src/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john-\Documents\Python Scripts\SupplyChainOptimizer\src\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{219022CE-CFFE-409A-9464-F800E6E350CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05C61AD0-9180-4E91-94E5-0E9764A51AD2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C62472-F763-4583-98A1-D04BB2D057D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="12050" firstSheet="11" activeTab="15" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
+    <workbookView xWindow="-38520" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -9548,17 +9548,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.15234375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -9574,22 +9574,22 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4"/>
       <c r="B4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B7" s="12"/>
     </row>
   </sheetData>
@@ -9607,13 +9607,13 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9624,7 +9624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -10154,9 +10154,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10198,9 +10198,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -10246,14 +10246,14 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10284,17 +10284,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" customWidth="1"/>
+    <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -10363,16 +10363,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.53515625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -10428,127 +10428,127 @@
       <c r="M2" s="4"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="0.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="0.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="11:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:14" x14ac:dyDescent="0.4">
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -10567,21 +10567,21 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -10721,7 +10721,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>9999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -10807,12 +10807,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -10896,12 +10896,12 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -11038,19 +11038,19 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" customWidth="1"/>
+    <col min="5" max="5" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -11309,16 +11309,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11347,19 +11347,21 @@
   <sheetPr codeName="Sheet17" filterMode="1"/>
   <dimension ref="A1:J723"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J723"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.4609375" customWidth="1"/>
+    <col min="4" max="4" width="8.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.15234375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" customWidth="1"/>
+    <col min="14" max="14" width="8.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -11391,7 +11393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -11429,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -11467,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -11543,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>150</v>
       </c>
@@ -11581,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -11657,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>150</v>
       </c>
@@ -11695,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -11733,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -11771,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -11809,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>150</v>
       </c>
@@ -11847,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -11885,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -11923,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -11961,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -11999,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -12037,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -12075,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>150</v>
       </c>
@@ -12113,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>150</v>
       </c>
@@ -12151,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>150</v>
       </c>
@@ -12189,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -12227,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -12265,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -12341,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -12379,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -12417,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>150</v>
       </c>
@@ -12455,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -12493,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -12531,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -12569,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -12607,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -12645,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -12683,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -12721,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -12759,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -12797,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -12835,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -12911,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -12949,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -12987,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>161</v>
       </c>
@@ -13063,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>161</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>161</v>
       </c>
@@ -13139,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -13177,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>161</v>
       </c>
@@ -13215,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -13253,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -13291,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -13329,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -13367,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>161</v>
       </c>
@@ -13405,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>161</v>
       </c>
@@ -13481,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>161</v>
       </c>
@@ -13519,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -13557,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -13595,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>161</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -13671,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>161</v>
       </c>
@@ -13709,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -13747,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -13785,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>161</v>
       </c>
@@ -13823,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>161</v>
       </c>
@@ -13861,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>161</v>
       </c>
@@ -13899,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -13937,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -13975,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>161</v>
       </c>
@@ -14013,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>161</v>
       </c>
@@ -14051,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -14089,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>161</v>
       </c>
@@ -14127,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -14165,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>161</v>
       </c>
@@ -14203,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>161</v>
       </c>
@@ -14241,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>161</v>
       </c>
@@ -14279,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -14317,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -14355,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -14393,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -14431,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -14507,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -14545,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -14583,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -14621,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -14659,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -14697,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -14735,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -14773,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -14811,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -14849,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -14887,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -14925,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>176</v>
       </c>
@@ -14963,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -15001,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -15039,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -15077,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>176</v>
       </c>
@@ -15115,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -15153,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -15191,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>176</v>
       </c>
@@ -15229,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -15267,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -15305,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>176</v>
       </c>
@@ -15343,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>176</v>
       </c>
@@ -15381,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>176</v>
       </c>
@@ -15419,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>176</v>
       </c>
@@ -15457,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>176</v>
       </c>
@@ -15533,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -15571,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>176</v>
       </c>
@@ -15609,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>176</v>
       </c>
@@ -15647,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>176</v>
       </c>
@@ -15685,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>176</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>176</v>
       </c>
@@ -15761,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>176</v>
       </c>
@@ -15799,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -15837,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -15875,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -15913,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>180</v>
       </c>
@@ -15951,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>180</v>
       </c>
@@ -15989,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>180</v>
       </c>
@@ -16027,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>180</v>
       </c>
@@ -16065,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>180</v>
       </c>
@@ -16103,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>180</v>
       </c>
@@ -16141,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>180</v>
       </c>
@@ -16179,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -16217,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>180</v>
       </c>
@@ -16255,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>180</v>
       </c>
@@ -16293,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>180</v>
       </c>
@@ -16331,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>180</v>
       </c>
@@ -16369,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>180</v>
       </c>
@@ -16407,7 +16409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -16445,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>180</v>
       </c>
@@ -16483,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>180</v>
       </c>
@@ -16521,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>180</v>
       </c>
@@ -16559,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>180</v>
       </c>
@@ -16597,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>180</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>180</v>
       </c>
@@ -16673,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>180</v>
       </c>
@@ -16711,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>180</v>
       </c>
@@ -16749,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>180</v>
       </c>
@@ -16787,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -16825,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>180</v>
       </c>
@@ -16863,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>180</v>
       </c>
@@ -16901,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -16939,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>180</v>
       </c>
@@ -16977,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>180</v>
       </c>
@@ -17015,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>180</v>
       </c>
@@ -17053,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>180</v>
       </c>
@@ -17091,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>180</v>
       </c>
@@ -17129,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>180</v>
       </c>
@@ -17167,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -17205,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>180</v>
       </c>
@@ -17243,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -17281,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -17319,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>181</v>
       </c>
@@ -17357,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -17395,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>181</v>
       </c>
@@ -17433,7 +17435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>181</v>
       </c>
@@ -17471,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -17509,7 +17511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>181</v>
       </c>
@@ -17547,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -17585,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -17623,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -17661,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -17699,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -17737,7 +17739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -17775,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>181</v>
       </c>
@@ -17813,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>181</v>
       </c>
@@ -17851,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>181</v>
       </c>
@@ -17889,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>181</v>
       </c>
@@ -17927,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>181</v>
       </c>
@@ -17965,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -18003,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>181</v>
       </c>
@@ -18041,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -18079,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -18117,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -18155,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>181</v>
       </c>
@@ -18193,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -18231,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -18269,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -18307,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -18345,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>181</v>
       </c>
@@ -18383,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>181</v>
       </c>
@@ -18421,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>181</v>
       </c>
@@ -18459,7 +18461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>181</v>
       </c>
@@ -18497,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>181</v>
       </c>
@@ -18535,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>181</v>
       </c>
@@ -18573,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>181</v>
       </c>
@@ -18611,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>181</v>
       </c>
@@ -18649,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>181</v>
       </c>
@@ -18687,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>181</v>
       </c>
@@ -18725,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>181</v>
       </c>
@@ -18763,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>181</v>
       </c>
@@ -18801,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>183</v>
       </c>
@@ -18839,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>183</v>
       </c>
@@ -18877,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>183</v>
       </c>
@@ -18915,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>183</v>
       </c>
@@ -18953,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>183</v>
       </c>
@@ -18991,7 +18993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>183</v>
       </c>
@@ -19029,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>183</v>
       </c>
@@ -19067,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>183</v>
       </c>
@@ -19105,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>183</v>
       </c>
@@ -19143,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>183</v>
       </c>
@@ -19181,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>183</v>
       </c>
@@ -19219,7 +19221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>183</v>
       </c>
@@ -19257,7 +19259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>183</v>
       </c>
@@ -19295,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>183</v>
       </c>
@@ -19333,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>183</v>
       </c>
@@ -19371,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>183</v>
       </c>
@@ -19409,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>183</v>
       </c>
@@ -19447,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>183</v>
       </c>
@@ -19485,7 +19487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>183</v>
       </c>
@@ -19523,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>183</v>
       </c>
@@ -19561,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>183</v>
       </c>
@@ -19599,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>183</v>
       </c>
@@ -19637,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>183</v>
       </c>
@@ -19675,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>183</v>
       </c>
@@ -19713,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>183</v>
       </c>
@@ -19751,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>183</v>
       </c>
@@ -19789,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>183</v>
       </c>
@@ -19827,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>183</v>
       </c>
@@ -19865,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>183</v>
       </c>
@@ -19903,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>183</v>
       </c>
@@ -19941,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>183</v>
       </c>
@@ -19979,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>183</v>
       </c>
@@ -20017,7 +20019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>183</v>
       </c>
@@ -20055,7 +20057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>183</v>
       </c>
@@ -20093,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>183</v>
       </c>
@@ -20131,7 +20133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>183</v>
       </c>
@@ -20169,7 +20171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>183</v>
       </c>
@@ -20207,7 +20209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>183</v>
       </c>
@@ -20245,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>183</v>
       </c>
@@ -20283,7 +20285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>63</v>
       </c>
@@ -20321,7 +20323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>63</v>
       </c>
@@ -20359,7 +20361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>63</v>
       </c>
@@ -20397,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>63</v>
       </c>
@@ -20435,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>63</v>
       </c>
@@ -20473,7 +20475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -20511,7 +20513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>63</v>
       </c>
@@ -20549,7 +20551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>63</v>
       </c>
@@ -20587,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>63</v>
       </c>
@@ -20625,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>63</v>
       </c>
@@ -20663,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>63</v>
       </c>
@@ -20701,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>63</v>
       </c>
@@ -20739,7 +20741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>63</v>
       </c>
@@ -20777,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>63</v>
       </c>
@@ -20815,7 +20817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>63</v>
       </c>
@@ -20853,7 +20855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>63</v>
       </c>
@@ -20891,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>63</v>
       </c>
@@ -20929,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>63</v>
       </c>
@@ -20967,7 +20969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>63</v>
       </c>
@@ -21005,7 +21007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>63</v>
       </c>
@@ -21043,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>63</v>
       </c>
@@ -21081,7 +21083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>63</v>
       </c>
@@ -21119,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>63</v>
       </c>
@@ -21157,7 +21159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>63</v>
       </c>
@@ -21195,7 +21197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>63</v>
       </c>
@@ -21233,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>63</v>
       </c>
@@ -21271,7 +21273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>63</v>
       </c>
@@ -21309,7 +21311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>63</v>
       </c>
@@ -21347,7 +21349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>63</v>
       </c>
@@ -21385,7 +21387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>63</v>
       </c>
@@ -21423,7 +21425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>63</v>
       </c>
@@ -21461,7 +21463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>63</v>
       </c>
@@ -21499,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>63</v>
       </c>
@@ -21537,7 +21539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>63</v>
       </c>
@@ -21575,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>63</v>
       </c>
@@ -21613,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>63</v>
       </c>
@@ -21651,7 +21653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>63</v>
       </c>
@@ -21689,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>63</v>
       </c>
@@ -21727,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>63</v>
       </c>
@@ -21765,7 +21767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>148</v>
       </c>
@@ -21803,7 +21805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>148</v>
       </c>
@@ -21841,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>148</v>
       </c>
@@ -21879,7 +21881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>148</v>
       </c>
@@ -21917,7 +21919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>148</v>
       </c>
@@ -21955,7 +21957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>148</v>
       </c>
@@ -21993,7 +21995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>148</v>
       </c>
@@ -22031,7 +22033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>148</v>
       </c>
@@ -22069,7 +22071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>148</v>
       </c>
@@ -22107,7 +22109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>148</v>
       </c>
@@ -22145,7 +22147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>148</v>
       </c>
@@ -22183,7 +22185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>148</v>
       </c>
@@ -22221,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>148</v>
       </c>
@@ -22259,7 +22261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>148</v>
       </c>
@@ -22297,7 +22299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>148</v>
       </c>
@@ -22335,7 +22337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>148</v>
       </c>
@@ -22373,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>148</v>
       </c>
@@ -22411,7 +22413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>148</v>
       </c>
@@ -22449,7 +22451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>148</v>
       </c>
@@ -22487,7 +22489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>148</v>
       </c>
@@ -22525,7 +22527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>148</v>
       </c>
@@ -22563,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>148</v>
       </c>
@@ -22601,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>148</v>
       </c>
@@ -22639,7 +22641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>148</v>
       </c>
@@ -22677,7 +22679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>148</v>
       </c>
@@ -22715,7 +22717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>148</v>
       </c>
@@ -22753,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>148</v>
       </c>
@@ -22791,7 +22793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>148</v>
       </c>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>148</v>
       </c>
@@ -22867,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>148</v>
       </c>
@@ -22905,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>148</v>
       </c>
@@ -22943,7 +22945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>148</v>
       </c>
@@ -22981,7 +22983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>148</v>
       </c>
@@ -23019,7 +23021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>148</v>
       </c>
@@ -23057,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>148</v>
       </c>
@@ -23095,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>148</v>
       </c>
@@ -23133,7 +23135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>148</v>
       </c>
@@ -23171,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>148</v>
       </c>
@@ -23209,7 +23211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>148</v>
       </c>
@@ -23247,7 +23249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>155</v>
       </c>
@@ -23285,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>155</v>
       </c>
@@ -23323,7 +23325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>155</v>
       </c>
@@ -23361,7 +23363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>155</v>
       </c>
@@ -23399,7 +23401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>155</v>
       </c>
@@ -23437,7 +23439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>155</v>
       </c>
@@ -23475,7 +23477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>155</v>
       </c>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>155</v>
       </c>
@@ -23551,7 +23553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>155</v>
       </c>
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>155</v>
       </c>
@@ -23627,7 +23629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>155</v>
       </c>
@@ -23665,7 +23667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>155</v>
       </c>
@@ -23703,7 +23705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>155</v>
       </c>
@@ -23741,7 +23743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>155</v>
       </c>
@@ -23779,7 +23781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>155</v>
       </c>
@@ -23817,7 +23819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>155</v>
       </c>
@@ -23855,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>155</v>
       </c>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>155</v>
       </c>
@@ -23931,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>155</v>
       </c>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>155</v>
       </c>
@@ -24007,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>155</v>
       </c>
@@ -24045,7 +24047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>155</v>
       </c>
@@ -24083,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>155</v>
       </c>
@@ -24121,7 +24123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>155</v>
       </c>
@@ -24159,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>155</v>
       </c>
@@ -24197,7 +24199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>155</v>
       </c>
@@ -24235,7 +24237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>155</v>
       </c>
@@ -24273,7 +24275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>155</v>
       </c>
@@ -24311,7 +24313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>155</v>
       </c>
@@ -24349,7 +24351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>155</v>
       </c>
@@ -24387,7 +24389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>155</v>
       </c>
@@ -24425,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345" t="s">
         <v>155</v>
       </c>
@@ -24463,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346" t="s">
         <v>155</v>
       </c>
@@ -24501,7 +24503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A347" t="s">
         <v>155</v>
       </c>
@@ -24539,7 +24541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348" t="s">
         <v>155</v>
       </c>
@@ -24577,7 +24579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349" t="s">
         <v>155</v>
       </c>
@@ -24615,7 +24617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350" t="s">
         <v>155</v>
       </c>
@@ -24653,7 +24655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>155</v>
       </c>
@@ -24691,7 +24693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
         <v>155</v>
       </c>
@@ -24729,7 +24731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" t="s">
         <v>179</v>
       </c>
@@ -24767,7 +24769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
         <v>179</v>
       </c>
@@ -24805,7 +24807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A355" t="s">
         <v>179</v>
       </c>
@@ -24843,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A356" t="s">
         <v>179</v>
       </c>
@@ -24881,7 +24883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" t="s">
         <v>179</v>
       </c>
@@ -24919,7 +24921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" t="s">
         <v>179</v>
       </c>
@@ -24957,7 +24959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" t="s">
         <v>179</v>
       </c>
@@ -24995,7 +24997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
         <v>179</v>
       </c>
@@ -25033,7 +25035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A361" t="s">
         <v>179</v>
       </c>
@@ -25071,7 +25073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" t="s">
         <v>179</v>
       </c>
@@ -25109,7 +25111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" t="s">
         <v>179</v>
       </c>
@@ -25147,7 +25149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" t="s">
         <v>179</v>
       </c>
@@ -25185,7 +25187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" t="s">
         <v>179</v>
       </c>
@@ -25223,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" t="s">
         <v>179</v>
       </c>
@@ -25261,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" t="s">
         <v>179</v>
       </c>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" t="s">
         <v>179</v>
       </c>
@@ -25337,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" t="s">
         <v>179</v>
       </c>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" t="s">
         <v>179</v>
       </c>
@@ -25413,7 +25415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>179</v>
       </c>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>179</v>
       </c>
@@ -25489,7 +25491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>179</v>
       </c>
@@ -25527,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A374" t="s">
         <v>179</v>
       </c>
@@ -25565,7 +25567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" t="s">
         <v>179</v>
       </c>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" t="s">
         <v>179</v>
       </c>
@@ -25641,7 +25643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" t="s">
         <v>179</v>
       </c>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" t="s">
         <v>179</v>
       </c>
@@ -25717,7 +25719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" t="s">
         <v>179</v>
       </c>
@@ -25755,7 +25757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" t="s">
         <v>179</v>
       </c>
@@ -25793,7 +25795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" t="s">
         <v>179</v>
       </c>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" t="s">
         <v>179</v>
       </c>
@@ -25869,7 +25871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>179</v>
       </c>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>179</v>
       </c>
@@ -25945,7 +25947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>179</v>
       </c>
@@ -25983,7 +25985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>179</v>
       </c>
@@ -26021,7 +26023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>179</v>
       </c>
@@ -26059,7 +26061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>179</v>
       </c>
@@ -26097,7 +26099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>179</v>
       </c>
@@ -26135,7 +26137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>179</v>
       </c>
@@ -26173,7 +26175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
         <v>179</v>
       </c>
@@ -26211,289 +26213,289 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="401" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="402" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="403" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="404" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="405" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="406" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="407" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="408" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="409" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="410" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="411" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="412" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="413" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="414" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="415" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="416" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="417" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="418" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="419" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="420" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="421" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="422" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="423" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="424" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="425" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="426" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="427" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="428" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="429" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="430" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="431" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="432" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="433" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="434" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="435" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="436" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="437" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="438" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="439" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="440" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="441" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="442" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="443" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="444" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="445" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="446" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="447" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="448" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="449" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="450" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="451" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="452" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="453" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="454" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="455" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="456" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="457" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="458" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="459" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="460" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="461" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="462" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="463" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="464" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="465" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="466" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="467" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="468" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="469" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="470" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="471" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="472" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="473" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="474" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="475" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="476" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="477" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="478" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="479" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="480" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="481" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="482" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="483" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="484" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="485" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="486" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="487" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="488" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="489" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="490" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="491" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="492" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="493" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="494" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="495" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="496" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="497" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="498" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="499" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="500" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="501" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="502" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="503" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="504" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="505" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="506" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="507" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="508" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="509" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="510" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="511" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="512" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="513" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="514" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="515" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="516" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="517" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="518" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="519" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="520" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="521" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="522" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="523" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="524" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="525" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="526" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="527" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="528" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="529" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="530" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="531" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="532" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="533" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="534" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="535" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="536" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="537" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="538" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="539" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="540" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="541" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="542" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="543" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="544" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="545" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="546" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="547" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="548" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="549" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="550" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="551" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="552" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="553" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="554" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="555" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="556" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="557" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="558" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="559" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="560" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="561" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="562" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="563" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="564" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="565" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="566" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="567" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="568" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="569" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="570" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="571" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="572" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="573" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="574" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="575" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="576" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="577" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="578" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="579" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="580" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="581" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="582" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="583" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="584" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="585" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="586" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="587" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="588" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="589" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="590" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="591" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="592" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="593" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="594" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="595" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="596" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="597" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="598" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="599" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="600" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="601" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="602" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="603" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="604" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="605" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="606" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="607" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="608" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="609" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="610" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="611" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="612" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="613" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="614" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="615" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="616" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="617" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="618" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="619" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="620" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="621" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="622" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="623" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="624" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="625" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="626" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="627" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="628" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="629" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="630" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="631" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="632" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="633" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="634" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="635" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="636" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="637" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="638" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="639" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="640" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="641" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="642" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="643" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="644" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="645" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="646" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="647" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="648" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="649" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="650" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="651" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="652" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="653" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="654" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="655" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="656" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="657" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="658" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="659" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="660" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="661" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="662" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="663" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="664" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="665" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="666" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="667" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="668" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="669" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="670" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="671" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="672" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="401" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="402" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="403" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="404" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="405" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="406" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="407" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="408" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="409" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="410" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="411" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="412" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="413" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="414" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="415" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="416" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="417" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="418" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="419" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="420" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="421" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="422" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="423" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="424" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="425" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="426" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="427" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="428" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="429" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="430" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="431" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="432" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="433" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="434" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="435" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="436" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="437" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="438" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="439" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="440" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="441" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="442" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="443" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="444" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="445" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="446" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="447" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="448" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="449" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="450" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="451" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="452" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="453" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="454" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="455" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="456" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="457" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="458" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="459" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="460" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="461" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="462" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="463" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="464" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="465" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="466" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="467" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="468" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="469" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="470" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="471" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="472" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="473" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="474" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="475" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="476" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="477" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="478" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="479" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="480" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="481" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="482" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="483" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="484" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="485" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="486" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="487" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="488" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="489" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="490" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="491" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="492" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="493" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="494" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="495" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="496" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="497" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="498" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="499" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="500" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="501" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="502" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="503" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="504" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="505" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="506" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="507" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="508" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="509" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="510" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="511" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="512" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="513" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="514" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="515" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="516" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="517" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="518" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="519" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="520" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="521" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="522" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="523" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="524" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="525" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="526" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="527" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="528" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="529" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="530" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="531" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="532" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="533" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="534" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="535" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="536" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="537" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="538" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="539" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="540" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="541" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="542" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="543" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="544" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="545" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="546" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="547" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="548" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="549" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="550" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="551" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="552" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="553" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="554" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="555" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="556" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="557" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="558" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="559" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="560" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="561" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="562" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="563" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="564" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="565" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="566" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="567" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="568" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="569" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="570" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="571" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="572" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="573" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="574" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="575" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="576" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="577" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="578" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="579" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="580" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="581" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="582" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="583" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="584" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="585" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="586" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="587" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="588" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="589" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="590" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="591" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="592" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="593" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="594" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="595" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="596" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="597" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="598" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="599" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="600" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="601" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="602" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="603" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="604" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="605" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="606" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="607" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="608" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="609" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="610" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="611" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="612" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="613" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="614" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="615" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="616" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="617" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="618" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="619" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="620" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="621" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="622" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="623" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="624" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="625" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="626" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="627" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="628" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="629" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="630" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="631" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="632" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="633" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="634" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="635" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="636" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="637" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="638" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="639" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="640" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="641" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="642" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="643" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="644" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="645" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="646" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="647" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="648" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="649" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="650" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="651" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="652" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="653" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="654" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="655" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="656" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="657" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="658" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="659" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="660" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="661" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="662" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="663" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="664" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="665" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="666" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="667" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="668" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="669" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="670" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="671" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="672" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="673" spans="1:10" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="674" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A674" t="s">
         <v>150</v>
       </c>
@@ -26531,7 +26533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A675" t="s">
         <v>161</v>
       </c>
@@ -26569,7 +26571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A676" t="s">
         <v>176</v>
       </c>
@@ -26607,7 +26609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A677" t="s">
         <v>180</v>
       </c>
@@ -26645,7 +26647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A678" t="s">
         <v>181</v>
       </c>
@@ -26683,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A679" t="s">
         <v>183</v>
       </c>
@@ -26721,7 +26723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A680" t="s">
         <v>63</v>
       </c>
@@ -26759,7 +26761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A681" t="s">
         <v>148</v>
       </c>
@@ -26797,7 +26799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A682" t="s">
         <v>155</v>
       </c>
@@ -26835,7 +26837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A683" t="s">
         <v>179</v>
       </c>
@@ -26873,7 +26875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A684" t="s">
         <v>190</v>
       </c>
@@ -26911,7 +26913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A685" t="s">
         <v>190</v>
       </c>
@@ -26949,7 +26951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A686" t="s">
         <v>190</v>
       </c>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A687" t="s">
         <v>190</v>
       </c>
@@ -27025,7 +27027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A688" t="s">
         <v>190</v>
       </c>
@@ -27063,7 +27065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A689" t="s">
         <v>190</v>
       </c>
@@ -27101,7 +27103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A690" t="s">
         <v>190</v>
       </c>
@@ -27139,7 +27141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A691" t="s">
         <v>190</v>
       </c>
@@ -27177,7 +27179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A692" t="s">
         <v>190</v>
       </c>
@@ -27215,7 +27217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A693" t="s">
         <v>190</v>
       </c>
@@ -27253,7 +27255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A694" t="s">
         <v>190</v>
       </c>
@@ -27291,7 +27293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
         <v>190</v>
       </c>
@@ -27329,7 +27331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A696" t="s">
         <v>190</v>
       </c>
@@ -27367,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A697" t="s">
         <v>190</v>
       </c>
@@ -27405,7 +27407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A698" t="s">
         <v>190</v>
       </c>
@@ -27443,7 +27445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A699" t="s">
         <v>190</v>
       </c>
@@ -27481,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A700" t="s">
         <v>190</v>
       </c>
@@ -27519,7 +27521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A701" t="s">
         <v>190</v>
       </c>
@@ -27557,7 +27559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A702" t="s">
         <v>190</v>
       </c>
@@ -27595,7 +27597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
         <v>190</v>
       </c>
@@ -27633,7 +27635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
         <v>190</v>
       </c>
@@ -27671,7 +27673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
         <v>190</v>
       </c>
@@ -27709,7 +27711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
         <v>190</v>
       </c>
@@ -27747,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
         <v>190</v>
       </c>
@@ -27785,7 +27787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
         <v>190</v>
       </c>
@@ -27823,7 +27825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
         <v>190</v>
       </c>
@@ -27861,7 +27863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
         <v>190</v>
       </c>
@@ -27899,7 +27901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
         <v>190</v>
       </c>
@@ -27937,7 +27939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A712" t="s">
         <v>190</v>
       </c>
@@ -27975,7 +27977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A713" t="s">
         <v>190</v>
       </c>
@@ -28013,7 +28015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A714" t="s">
         <v>190</v>
       </c>
@@ -28051,7 +28053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
         <v>190</v>
       </c>
@@ -28089,7 +28091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A716" t="s">
         <v>190</v>
       </c>
@@ -28127,7 +28129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A717" t="s">
         <v>190</v>
       </c>
@@ -28165,7 +28167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A718" t="s">
         <v>190</v>
       </c>
@@ -28203,7 +28205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A719" t="s">
         <v>190</v>
       </c>
@@ -28241,7 +28243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
         <v>190</v>
       </c>
@@ -28279,7 +28281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
         <v>190</v>
       </c>
@@ -28317,7 +28319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A722" t="s">
         <v>190</v>
       </c>
@@ -28355,7 +28357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
         <v>190</v>
       </c>
@@ -28418,15 +28420,15 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="6" width="11.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.15234375" customWidth="1"/>
+    <col min="5" max="6" width="11.15234375" customWidth="1"/>
+    <col min="9" max="9" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -28455,7 +28457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -28485,7 +28487,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -28514,7 +28516,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -28558,12 +28560,12 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -28607,18 +28609,18 @@
       <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.84375" customWidth="1"/>
+    <col min="7" max="7" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.84375" customWidth="1"/>
     <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -28667,13 +28669,13 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -28684,7 +28686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -28695,7 +28697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -28718,15 +28720,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -28749,7 +28751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -28772,7 +28774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -28795,7 +28797,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -28832,14 +28834,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -28875,7 +28877,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -28907,7 +28909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -28939,7 +28941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -28985,14 +28987,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -29009,7 +29011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -29026,7 +29028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -29043,7 +29045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -29074,14 +29076,14 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -29116,7 +29118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -29151,7 +29153,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -29186,7 +29188,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -29235,13 +29237,13 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -29278,16 +29280,16 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="39.1796875" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="39.15234375" customWidth="1"/>
+    <col min="6" max="6" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -29302,7 +29304,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -29316,25 +29318,25 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="9"/>
     </row>
   </sheetData>
@@ -29357,13 +29359,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -29394,17 +29396,17 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="8"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="8"/>
+    <col min="3" max="3" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -29421,7 +29423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -29439,7 +29441,7 @@
         <v>125774.14285714286</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -29457,7 +29459,7 @@
         <v>91546.266666666677</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -29475,7 +29477,7 @@
         <v>53459.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -29493,7 +29495,7 @@
         <v>29588.066666666669</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -29511,7 +29513,7 @@
         <v>31653.700000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -29529,7 +29531,7 @@
         <v>30191.599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -29547,7 +29549,7 @@
         <v>21303.7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -29565,7 +29567,7 @@
         <v>21103.466666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -29583,7 +29585,7 @@
         <v>19523.600000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -29601,7 +29603,7 @@
         <v>22521.566666666669</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -29619,7 +29621,7 @@
         <v>22981.566666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -29637,7 +29639,7 @@
         <v>21101.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -29655,7 +29657,7 @@
         <v>15315.666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -29673,7 +29675,7 @@
         <v>15588.833333333332</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -29691,7 +29693,7 @@
         <v>14741.366666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -29709,7 +29711,7 @@
         <v>12420.8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -29727,7 +29729,7 @@
         <v>12831.966666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -29745,7 +29747,7 @@
         <v>10752.333333333334</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -29763,7 +29765,7 @@
         <v>9029.0333333333347</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -29781,7 +29783,7 @@
         <v>9967.8333333333339</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -29799,7 +29801,7 @@
         <v>10384.966666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -29817,7 +29819,7 @@
         <v>9278.2999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -29835,7 +29837,7 @@
         <v>9748.2999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -29853,7 +29855,7 @@
         <v>8796.2000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -29871,7 +29873,7 @@
         <v>10252.433333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -29889,7 +29891,7 @@
         <v>8610.2666666666664</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -29907,7 +29909,7 @@
         <v>7933.5000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -29925,7 +29927,7 @@
         <v>9450.2000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -29943,7 +29945,7 @@
         <v>8994.6666666666679</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -29961,7 +29963,7 @@
         <v>8318.1666666666661</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -29979,7 +29981,7 @@
         <v>7436.9666666666672</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -29997,7 +29999,7 @@
         <v>8314.0666666666657</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -30015,7 +30017,7 @@
         <v>6691.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -30033,7 +30035,7 @@
         <v>7044.2666666666673</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -30051,7 +30053,7 @@
         <v>3813.1333333333337</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -30069,7 +30071,7 @@
         <v>201238.62857142859</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -30087,7 +30089,7 @@
         <v>146474.0266666667</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -30105,7 +30107,7 @@
         <v>85535.840000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -30123,7 +30125,7 @@
         <v>47340.906666666677</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -30141,7 +30143,7 @@
         <v>50645.920000000013</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -30159,7 +30161,7 @@
         <v>48306.559999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -30177,7 +30179,7 @@
         <v>34085.920000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -30195,7 +30197,7 @@
         <v>33765.546666666669</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -30213,7 +30215,7 @@
         <v>31237.760000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -30231,7 +30233,7 @@
         <v>36034.506666666675</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -30249,7 +30251,7 @@
         <v>36770.506666666675</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -30267,7 +30269,7 @@
         <v>33762.400000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -30285,7 +30287,7 @@
         <v>24505.066666666666</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -30303,7 +30305,7 @@
         <v>24942.133333333331</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -30321,7 +30323,7 @@
         <v>23586.186666666668</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -30339,7 +30341,7 @@
         <v>19873.28</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -30357,7 +30359,7 @@
         <v>20531.146666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -30375,7 +30377,7 @@
         <v>17203.733333333334</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -30393,7 +30395,7 @@
         <v>14446.453333333337</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -30411,7 +30413,7 @@
         <v>15948.533333333335</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -30429,7 +30431,7 @@
         <v>16615.946666666667</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -30447,7 +30449,7 @@
         <v>14845.279999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -30465,7 +30467,7 @@
         <v>15597.279999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -30483,7 +30485,7 @@
         <v>14073.920000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -30501,7 +30503,7 @@
         <v>16403.893333333337</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -30519,7 +30521,7 @@
         <v>13776.426666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -30537,7 +30539,7 @@
         <v>12693.600000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -30555,7 +30557,7 @@
         <v>15120.320000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -30573,7 +30575,7 @@
         <v>14391.466666666669</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -30591,7 +30593,7 @@
         <v>13309.066666666666</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -30609,7 +30611,7 @@
         <v>11899.146666666667</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -30627,7 +30629,7 @@
         <v>13302.506666666666</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -30645,7 +30647,7 @@
         <v>10705.760000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -30663,7 +30665,7 @@
         <v>11270.826666666668</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -30710,16 +30712,16 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -30745,7 +30747,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -30771,7 +30773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -30811,12 +30813,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="5" width="13.54296875" customWidth="1"/>
+    <col min="3" max="5" width="13.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -30842,7 +30844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -30884,15 +30886,15 @@
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="5" width="13.54296875" customWidth="1"/>
+    <col min="3" max="5" width="13.53515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -30918,7 +30920,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -30959,13 +30961,13 @@
       <selection activeCell="D18" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="5" width="13.54296875" customWidth="1"/>
+    <col min="3" max="5" width="13.53515625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -30988,7 +30990,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -31011,7 +31013,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -31034,7 +31036,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -31057,7 +31059,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -31095,15 +31097,15 @@
       <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="4" width="9.1796875" customWidth="1"/>
+    <col min="3" max="4" width="9.15234375" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -31146,15 +31148,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.84375" customWidth="1"/>
+    <col min="7" max="7" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -31180,7 +31182,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -31206,7 +31208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -31232,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -31258,7 +31260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -31284,7 +31286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -31310,7 +31312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -31336,7 +31338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -31362,7 +31364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -31388,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -31414,7 +31416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -31440,7 +31442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -31466,7 +31468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -31492,7 +31494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -31532,13 +31534,13 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -31549,7 +31551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>187</v>
       </c>
@@ -31560,7 +31562,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -31571,7 +31573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -31582,7 +31584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -31607,13 +31609,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -31625,7 +31627,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -31636,7 +31638,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D17" s="2"/>
     </row>
   </sheetData>
@@ -31653,9 +31655,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -31666,7 +31668,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -31674,7 +31676,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -31697,28 +31699,28 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" customWidth="1"/>
+    <col min="4" max="4" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.53515625" customWidth="1"/>
+    <col min="9" max="9" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.53515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.53515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -31780,7 +31782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -31827,7 +31829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -31874,7 +31876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -31921,7 +31923,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -31968,7 +31970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -32015,7 +32017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -32062,7 +32064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -32118,7 +32120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -32165,7 +32167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -32212,7 +32214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -32259,7 +32261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -32306,7 +32308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -32353,7 +32355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -32409,7 +32411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -32456,7 +32458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -32506,7 +32508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -32553,7 +32555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -32603,7 +32605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -32650,7 +32652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -32697,7 +32699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -32744,7 +32746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -32791,7 +32793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -32838,7 +32840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -32888,7 +32890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -32935,7 +32937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -32982,7 +32984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -33029,7 +33031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -33076,7 +33078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -33123,7 +33125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -33170,7 +33172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -33217,7 +33219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -33264,7 +33266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -33311,7 +33313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -33358,7 +33360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -33405,7 +33407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -33452,7 +33454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -33499,7 +33501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -33546,7 +33548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -33596,7 +33598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -33643,7 +33645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -33690,7 +33692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -33743,7 +33745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -33793,7 +33795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -33843,7 +33845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -33890,7 +33892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -33940,7 +33942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -34018,17 +34020,17 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.15234375" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -34086,7 +34088,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -34142,7 +34144,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -34198,7 +34200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -34254,7 +34256,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -34311,7 +34313,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -34382,22 +34384,22 @@
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.53515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.53515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>

--- a/src/examples/demo_inputs_transportation_facility_location.xlsx
+++ b/src/examples/demo_inputs_transportation_facility_location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john-\Documents\Python Scripts\SupplyChainOptimizer\src\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C62472-F763-4583-98A1-D04BB2D057D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998773FD-103E-4954-B636-BBFF4F35C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5520" windowWidth="38640" windowHeight="21120" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
+    <workbookView xWindow="-38520" yWindow="75" windowWidth="38640" windowHeight="21120" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -9549,7 +9549,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/src/examples/demo_inputs_transportation_facility_location.xlsx
+++ b/src/examples/demo_inputs_transportation_facility_location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john-\Documents\Python Scripts\SupplyChainOptimizer\src\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998773FD-103E-4954-B636-BBFF4F35C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6B062-00CB-4D15-90B2-24775C525D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="75" windowWidth="38640" windowHeight="21120" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="7" xr2:uid="{535FA824-8CF7-4082-B044-1F91AE1A9818}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="11" r:id="rId1"/>
@@ -9548,8 +9548,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9603,8 +9603,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -31699,8 +31699,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -34016,8 +34016,8 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
